--- a/data/trans_dic/iP30KDA7_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDA7_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>91,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>87,58%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,9; 90,66</t>
+          <t>81,76; 95,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,19; 96,22</t>
+          <t>74,58; 90,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,72; 92,44</t>
+          <t>82,09; 92,44</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>89,84%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,48; 92,93</t>
+          <t>86,3; 94,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,83; 94,13</t>
+          <t>83,71; 92,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,1; 92,62</t>
+          <t>86,68; 92,31</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>89,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,47%</t>
+          <t>89,14%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,59; 93,49</t>
+          <t>82,12; 92,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,95; 92,93</t>
+          <t>85,26; 93,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,37; 92,4</t>
+          <t>85,5; 92,06</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>86,07%</t>
+          <t>82,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>84,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>83,58%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,28; 90,41</t>
+          <t>52,14; 92,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,84; 92,88</t>
+          <t>77,13; 89,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,03; 90,64</t>
+          <t>70,41; 88,82</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>89,55%</t>
+          <t>87,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>86,9%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,76; 90,22</t>
+          <t>73,0; 91,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,3; 91,78</t>
+          <t>83,57; 89,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,91; 90,28</t>
+          <t>80,9; 89,43</t>
         </is>
       </c>
     </row>
